--- a/Backend/Route2.xlsx
+++ b/Backend/Route2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\NOdejs\auto-code-generator\viscous\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D037F82-62F8-41F2-9B9B-5E96034A68C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B669223-D1D3-4646-85F9-C441751BA1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{AAAEDE2D-0C25-4860-BFA1-EBF251E04D99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{AAAEDE2D-0C25-4860-BFA1-EBF251E04D99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>serialNumber</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>reached</t>
+  </si>
+  <si>
+    <t>kuldeep home</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -172,11 +175,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,10 +211,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C41693D-6F46-40DE-BD42-8370CCE9A259}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,7 +563,7 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -776,7 +794,7 @@
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>0.32291666666666669</v>
       </c>
       <c r="D13" s="7">
@@ -796,7 +814,7 @@
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>0.3298611111111111</v>
       </c>
       <c r="D14" s="7">
@@ -816,7 +834,7 @@
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="D15" s="7">
@@ -826,6 +844,26 @@
         <v>78.975036922971597</v>
       </c>
       <c r="F15" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D16" s="9">
+        <v>21.11620667</v>
+      </c>
+      <c r="E16">
+        <v>79.052100830000001</v>
+      </c>
+      <c r="F16" s="9" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Backend/Route2.xlsx
+++ b/Backend/Route2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\NOdejs\auto-code-generator\viscous\Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\viscous\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B669223-D1D3-4646-85F9-C441751BA1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC39D5F3-6C19-4B5C-935F-C6D2305848F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{AAAEDE2D-0C25-4860-BFA1-EBF251E04D99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{AAAEDE2D-0C25-4860-BFA1-EBF251E04D99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>serialNumber</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>kuldeep home</t>
+  </si>
+  <si>
+    <t>backside</t>
+  </si>
+  <si>
+    <t>Frontside</t>
+  </si>
+  <si>
+    <t>OUTSIDE</t>
   </si>
 </sst>
 </file>
@@ -190,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,11 +223,12 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C41693D-6F46-40DE-BD42-8370CCE9A259}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -867,6 +877,66 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>21.2124043689168</v>
+      </c>
+      <c r="E17">
+        <v>78.972573530504704</v>
+      </c>
+      <c r="F17" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D18">
+        <v>21.2136415380381</v>
+      </c>
+      <c r="E18">
+        <v>78.974043745715306</v>
+      </c>
+      <c r="F18" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="D19">
+        <v>21.213356943809298</v>
+      </c>
+      <c r="E19">
+        <v>78.975852981438706</v>
+      </c>
+      <c r="F19" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
